--- a/TODO/ToDo.xlsx
+++ b/TODO/ToDo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TRAVAIL\Github\GESTION-RH\TODO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stage-RH\Projet\GESTION-RH\TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF692A3E-C693-4278-B50A-5A6357DC3FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1D38D-530C-485F-8D09-4D05C4F0DD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F5EBEFA-E146-46C4-90C1-9EDEA91CF524}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5EBEFA-E146-46C4-90C1-9EDEA91CF524}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,104 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Intitule</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Statut</t>
+  </si>
+  <si>
+    <t>Détails</t>
+  </si>
+  <si>
+    <t>Suivi de recrutement</t>
+  </si>
+  <si>
+    <t>Insertion de candidature</t>
+  </si>
+  <si>
+    <t>Affichage</t>
+  </si>
+  <si>
+    <t>Formulaire =&gt; nom, prénom, date de naissance, genre, adresse, CV et LM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>insertCandidature()</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Stockage BDD</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Upload fichiers</t>
+  </si>
+  <si>
+    <t>Affichage message</t>
+  </si>
+  <si>
+    <t>C# et API vers React (POST /api/candidatures)</t>
+  </si>
+  <si>
+    <t>Frontoffice/Backoffice</t>
+  </si>
+  <si>
+    <t>frontoffice</t>
+  </si>
+  <si>
+    <t>a faire</t>
+  </si>
+  <si>
+    <t>Tables: genre, departement, candidat, candidature</t>
+  </si>
+  <si>
+    <t>Upload CV et LM</t>
+  </si>
+  <si>
+    <t>Insertion en bytes de CV et LM</t>
+  </si>
+  <si>
+    <t>Message de succes ou d'erreur</t>
+  </si>
+  <si>
+    <t>Pop-up ou alert; erreur sur formulaire (validation des champs)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Estimation(mn)</t>
+  </si>
+  <si>
+    <t>Durée(mn)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,13 +140,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,13 +189,299 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -402,14 +811,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EF08E4-E059-45FD-AD24-75A59A8DBA5D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="3"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="30" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="3"/>
+    <col min="9" max="9" width="28.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8">
+        <f>SUM(F2:F7)</f>
+        <v>80</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I1 H1:H1048576">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"termine"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>"en cours"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"a faire"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"en cours"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"backoffice"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"frontoffice"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"frontoffice"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TODO/ToDo.xlsx
+++ b/TODO/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stage-RH\Projet\GESTION-RH\TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B1D38D-530C-485F-8D09-4D05C4F0DD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65FB03-72A0-4AAD-AE3F-903C56FE8797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5EBEFA-E146-46C4-90C1-9EDEA91CF524}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
   <si>
     <t>Module</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Model</t>
   </si>
   <si>
-    <t>insertCandidature()</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -126,6 +123,18 @@
   </si>
   <si>
     <t>Durée(mn)</t>
+  </si>
+  <si>
+    <t>Entites: Candidat, Candidature insertCandidature()</t>
+  </si>
+  <si>
+    <t>Traitement du score</t>
+  </si>
+  <si>
+    <t>lire le CV (ia ou API exterieur) et récuperer les données</t>
+  </si>
+  <si>
+    <t>calculer le score en fonction de : adresse, diplôme, langues, expériences, date de dépôt de la candidature)</t>
   </si>
 </sst>
 </file>
@@ -219,7 +228,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -284,200 +293,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EF08E4-E059-45FD-AD24-75A59A8DBA5D}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="I6" sqref="I6:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,7 +637,7 @@
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="30" style="5" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.140625" style="1" customWidth="1"/>
@@ -847,16 +662,16 @@
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -879,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -893,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -919,25 +734,25 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -945,25 +760,25 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -971,25 +786,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -997,46 +812,98 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1">
+        <v>40</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F9" s="1">
+        <v>20</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1">
-        <v>20</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
-        <f>SUM(F2:F7)</f>
-        <v>80</v>
-      </c>
-      <c r="G8" s="8">
-        <f>SUM(G2:G7)</f>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8">
+        <f ca="1">SUM(F2:F12)</f>
+        <v>140</v>
+      </c>
+      <c r="G10" s="8">
+        <f ca="1">SUM(G2:G12)</f>
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1 H1:H1048576">
+  <conditionalFormatting sqref="I1 H17:H1048576 H1:H12">
     <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"termine"</formula>
     </cfRule>
@@ -1044,7 +911,7 @@
       <formula>"en cours"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="H17:H1048576 H1:H12">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"a faire"</formula>
     </cfRule>
@@ -1052,7 +919,7 @@
       <formula>"en cours"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="I17:I1048576 I1:I12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"backoffice"</formula>
     </cfRule>

--- a/TODO/ToDo.xlsx
+++ b/TODO/ToDo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Stage-RH\Projet\GESTION-RH\TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C65FB03-72A0-4AAD-AE3F-903C56FE8797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2676FF35-0E34-4454-8A97-94DCB9D72AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F5EBEFA-E146-46C4-90C1-9EDEA91CF524}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +171,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -198,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -215,6 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -229,33 +237,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="3" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -293,6 +274,33 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="6" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="3" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -626,13 +634,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EF08E4-E059-45FD-AD24-75A59A8DBA5D}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6:I7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
@@ -645,7 +653,7 @@
     <col min="9" max="9" width="28.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -726,7 +734,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -752,7 +760,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -778,7 +786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -804,7 +812,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="60">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -830,7 +838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -856,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -882,51 +890,129 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="8">
-        <f ca="1">SUM(F2:F12)</f>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9">
+        <f ca="1">SUM(F2:F11)</f>
         <v>140</v>
       </c>
-      <c r="G10" s="8">
-        <f ca="1">SUM(G2:G12)</f>
+      <c r="G10" s="9">
+        <f ca="1">SUM(G2:G11)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I1 H17:H1048576 H1:H12">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="I1 H24:H1048576 H1:H22">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"termine"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"en cours"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17:H1048576 H1:H12">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+  <conditionalFormatting sqref="H24:H1048576 H1:H22">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"a faire"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"en cours"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I1048576 I1:I12">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="I24:I1048576 I1:I22">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"backoffice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"frontoffice"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"frontoffice"</formula>
     </cfRule>
   </conditionalFormatting>
